--- a/biology/Médecine/1234_en_santé_et_médecine/1234_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1234_en_santé_et_médecine/1234_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1234_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1234_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1234 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1234_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1234_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,15 +523,17 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Par une décrétale du pape Grégoire IX[1], l'Église fixe officiellement au quarante-deuxième jour, selon l'avis d'Hippocrate, le terme de l'animation de l'embryon et, reprenant l'affirmation de Gratien (1140) répétée par Innocent III en 1211, elle reconnaît que « n’est pas homicide celui qui procure l’avortement avant que l’âme ne soit infusée dans le corps[2] ».
-Une autre décrétale de Grégoire IX[3] confirme le canon, promulgué en 1216 par Innocent III à l'issue du concile du Latran, qui interdit aux prêtres et aux diacres la pratique de la chirurgie[4].
-Fondation de l'université al-Mustansiriyah, berceau de l'importante école de médecine de Bagdad[5].
-Fondation de l'hôtel-Dieu de Chaumont par Thibaut Ier, roi de Navarre et comte de Champagne[6].
-Henri III, roi d'Angleterre fonde un hôpital à Ospringe (en), paroisse de Faversham dans le Kent, établissement « voué à l'accueil des malades, des vieillards, voyageurs et pèlerins[7] ».
-Première mention d'une léproserie en Alsace[8], celle dite de l'Église-Rouge à Strasbourg[9].
-Une maison des malades (domus infirmorum) est attestée à Barbentane en Provence[10].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Par une décrétale du pape Grégoire IX, l'Église fixe officiellement au quarante-deuxième jour, selon l'avis d'Hippocrate, le terme de l'animation de l'embryon et, reprenant l'affirmation de Gratien (1140) répétée par Innocent III en 1211, elle reconnaît que « n’est pas homicide celui qui procure l’avortement avant que l’âme ne soit infusée dans le corps ».
+Une autre décrétale de Grégoire IX confirme le canon, promulgué en 1216 par Innocent III à l'issue du concile du Latran, qui interdit aux prêtres et aux diacres la pratique de la chirurgie.
+Fondation de l'université al-Mustansiriyah, berceau de l'importante école de médecine de Bagdad.
+Fondation de l'hôtel-Dieu de Chaumont par Thibaut Ier, roi de Navarre et comte de Champagne.
+Henri III, roi d'Angleterre fonde un hôpital à Ospringe (en), paroisse de Faversham dans le Kent, établissement « voué à l'accueil des malades, des vieillards, voyageurs et pèlerins ».
+Première mention d'une léproserie en Alsace, celle dite de l'Église-Rouge à Strasbourg.
+Une maison des malades (domus infirmorum) est attestée à Barbentane en Provence.</t>
         </is>
       </c>
     </row>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1234_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1234_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,9 +561,11 @@
           <t>Naissance</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Vers 1234 : Todros Aboulafia (mort après 1304), médecin et financier juif castillan, conseiller à la cour de Sanche IV et de Marie de Molina, neveu du philosophe Meïr Aboulafia[11].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vers 1234 : Todros Aboulafia (mort après 1304), médecin et financier juif castillan, conseiller à la cour de Sanche IV et de Marie de Molina, neveu du philosophe Meïr Aboulafia.
 </t>
         </is>
       </c>
